--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
   <si>
     <t>指令类型</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>pcaddu12i</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
   <si>
     <t>slt</t>
@@ -253,7 +256,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +295,17 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -904,137 +918,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,9 +1115,6 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1138,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1471,7 +1488,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1501,20 +1518,20 @@
         <v>3</v>
       </c>
       <c r="H1" s="10"/>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="33"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" ht="17.1" spans="1:20">
       <c r="A2" s="9"/>
@@ -1539,24 +1556,24 @@
       <c r="H2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="34"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" ht="16.35" spans="1:20">
       <c r="A3" s="14" t="s">
@@ -1585,7 +1602,7 @@
       <c r="J3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2"/>
@@ -1596,7 +1613,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="35"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" ht="15.6" spans="1:20">
       <c r="A4" s="14"/>
@@ -1615,13 +1632,13 @@
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="4"/>
@@ -1632,7 +1649,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="36"/>
+      <c r="T4" s="37"/>
     </row>
     <row r="5" ht="15.6" spans="1:20">
       <c r="A5" s="14"/>
@@ -1651,13 +1668,13 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="2"/>
@@ -1668,7 +1685,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="35"/>
+      <c r="T5" s="36"/>
     </row>
     <row r="6" ht="15.6" spans="1:20">
       <c r="A6" s="14"/>
@@ -1691,7 +1708,7 @@
       <c r="J6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="4"/>
@@ -1702,7 +1719,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="36"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" ht="15.6" spans="1:20">
       <c r="A7" s="14"/>
@@ -1721,13 +1738,13 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="2"/>
@@ -1738,7 +1755,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="35"/>
+      <c r="T7" s="36"/>
     </row>
     <row r="8" ht="15.6" spans="1:20">
       <c r="A8" s="14"/>
@@ -1759,13 +1776,13 @@
       <c r="H8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4"/>
@@ -1776,7 +1793,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="36"/>
+      <c r="T8" s="37"/>
     </row>
     <row r="9" ht="15.6" spans="1:20">
       <c r="A9" s="14"/>
@@ -1797,13 +1814,13 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="2"/>
@@ -1814,7 +1831,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="35"/>
+      <c r="T9" s="36"/>
     </row>
     <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="14"/>
@@ -1835,13 +1852,13 @@
       <c r="H10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4"/>
@@ -1852,7 +1869,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="36"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" ht="15.6" spans="1:20">
       <c r="A11" s="14"/>
@@ -1871,13 +1888,13 @@
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="2"/>
@@ -1888,7 +1905,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="35"/>
+      <c r="T11" s="36"/>
     </row>
     <row r="12" ht="15.6" spans="1:20">
       <c r="A12" s="14"/>
@@ -1907,13 +1924,13 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="K12" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="4"/>
@@ -1924,7 +1941,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="36"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13" ht="15.6" spans="1:20">
       <c r="A13" s="14"/>
@@ -1945,13 +1962,13 @@
       <c r="H13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="29" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="2"/>
@@ -1962,7 +1979,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="35"/>
+      <c r="T13" s="36"/>
     </row>
     <row r="14" ht="15.6" spans="1:20">
       <c r="A14" s="14"/>
@@ -1983,13 +2000,13 @@
       <c r="H14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="4"/>
@@ -2000,7 +2017,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="36"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15" ht="15.6" spans="1:20">
       <c r="A15" s="14"/>
@@ -2023,13 +2040,13 @@
       <c r="H15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="29" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="2"/>
@@ -2040,7 +2057,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="35"/>
+      <c r="T15" s="36"/>
     </row>
     <row r="16" ht="15.6" spans="1:20">
       <c r="A16" s="14"/>
@@ -2059,11 +2076,11 @@
       <c r="H16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="27" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="4"/>
@@ -2074,7 +2091,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="36"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" ht="15.6" spans="1:20">
       <c r="A17" s="14"/>
@@ -2094,10 +2111,12 @@
         <v>49</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="2"/>
@@ -2108,7 +2127,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="35"/>
+      <c r="T17" s="36"/>
     </row>
     <row r="18" ht="15.6" spans="1:20">
       <c r="A18" s="14"/>
@@ -2116,7 +2135,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>16</v>
@@ -2129,13 +2148,13 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="28" t="s">
-        <v>53</v>
+      <c r="I18" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="4"/>
@@ -2146,7 +2165,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="36"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" ht="15.6" spans="1:20">
       <c r="A19" s="14"/>
@@ -2154,7 +2173,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>16</v>
@@ -2167,13 +2186,13 @@
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="30" t="s">
-        <v>55</v>
+      <c r="I19" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>21</v>
       </c>
       <c r="L19" s="2"/>
@@ -2184,15 +2203,15 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="35"/>
+      <c r="T19" s="36"/>
     </row>
     <row r="20" ht="15.6" spans="1:20">
       <c r="A20" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
@@ -2202,18 +2221,18 @@
         <v>17</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="4"/>
@@ -2224,26 +2243,26 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="36"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21" ht="15.6" spans="1:20">
       <c r="A21" s="19"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2252,13 +2271,13 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="35"/>
+      <c r="T21" s="36"/>
     </row>
     <row r="22" ht="15.6" spans="1:20">
       <c r="A22" s="19"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
@@ -2268,14 +2287,14 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="29"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2284,13 +2303,13 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="36"/>
+      <c r="T22" s="37"/>
     </row>
     <row r="23" ht="15.6" spans="1:20">
       <c r="A23" s="19"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
@@ -2300,14 +2319,14 @@
         <v>16</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2316,26 +2335,26 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="35"/>
+      <c r="T23" s="36"/>
     </row>
     <row r="24" ht="15.6" spans="1:20">
       <c r="A24" s="19"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="29"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2344,15 +2363,15 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="36"/>
+      <c r="T24" s="37"/>
     </row>
     <row r="25" ht="15.6" spans="1:20">
       <c r="A25" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
@@ -2367,13 +2386,13 @@
       <c r="H25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2"/>
@@ -2384,13 +2403,13 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="35"/>
+      <c r="T25" s="36"/>
     </row>
     <row r="26" ht="15.6" spans="1:20">
       <c r="A26" s="14"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
@@ -2405,13 +2424,13 @@
       <c r="H26" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="27" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="29" t="s">
+      <c r="K26" s="28" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="4"/>
@@ -2422,13 +2441,13 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="36"/>
+      <c r="T26" s="37"/>
     </row>
     <row r="27" ht="15.6" spans="1:20">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16" t="s">
@@ -2443,13 +2462,13 @@
       <c r="H27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="2"/>
@@ -2460,13 +2479,13 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="35"/>
+      <c r="T27" s="36"/>
     </row>
     <row r="28" ht="15.6" spans="1:20">
       <c r="A28" s="14"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
@@ -2481,13 +2500,13 @@
       <c r="H28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="32" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="33" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="6"/>
@@ -2498,7 +2517,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="37"/>
+      <c r="T28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="18288" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="控制信号" sheetId="2" r:id="rId1"/>
@@ -28,24 +28,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="72">
-  <si>
-    <t>指令类型</t>
-  </si>
-  <si>
-    <t>指令</t>
-  </si>
-  <si>
-    <t>寄存器读写</t>
-  </si>
-  <si>
-    <t>立即数</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令类型</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寄存器读写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立即数</t>
+    </r>
   </si>
   <si>
     <t>ALU</t>
   </si>
   <si>
-    <t>备注</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指令</t>
+    </r>
   </si>
   <si>
     <t>rk</t>
@@ -57,10 +110,34 @@
     <t>rd</t>
   </si>
   <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>扩展方式</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特殊情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展方式</t>
+    </r>
   </si>
   <si>
     <t>op</t>
@@ -72,7 +149,15 @@
     <t>src2</t>
   </si>
   <si>
-    <t>运算</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运算</t>
+    </r>
   </si>
   <si>
     <t>addi.w</t>
@@ -123,7 +208,30 @@
     <t>ZeroExtend(ui12, 32)</t>
   </si>
   <si>
-    <t>非C3内</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内</t>
+    </r>
   </si>
   <si>
     <t>nor</t>
@@ -201,7 +309,15 @@
     <t>op_sltu</t>
   </si>
   <si>
-    <t>跳转</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳转</t>
+    </r>
   </si>
   <si>
     <t>jirl</t>
@@ -231,7 +347,21 @@
     <t>bl</t>
   </si>
   <si>
-    <t>访存</t>
+    <t>W→GR[1]</t>
+  </si>
+  <si>
+    <t>imm:4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>访存</t>
+    </r>
   </si>
   <si>
     <t>st.w</t>
@@ -256,7 +386,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,27 +404,8 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -306,6 +417,14 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -451,6 +570,24 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -664,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -728,6 +865,26 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -787,17 +944,6 @@
         <color theme="0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -918,137 +1064,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,13 +1231,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1106,8 +1261,11 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1118,52 +1276,49 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,10 +1640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1496,12 +1651,12 @@
     <col min="1" max="2" width="8.88888888888889" style="8"/>
     <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
     <col min="4" max="6" width="8.88888888888889" style="8"/>
-    <col min="7" max="7" width="11.3333333333333" style="8" customWidth="1"/>
-    <col min="8" max="8" width="32.2222222222222" style="8" customWidth="1"/>
-    <col min="9" max="16383" width="8.88888888888889" style="8"/>
+    <col min="7" max="8" width="11.3333333333333" style="8" customWidth="1"/>
+    <col min="9" max="9" width="32.2222222222222" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.95" spans="1:20">
+    <row r="1" ht="16.95" spans="1:21">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1509,103 +1664,107 @@
         <v>1</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="34"/>
-    </row>
-    <row r="2" ht="17.1" spans="1:20">
+      <c r="L1" s="10"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="37"/>
+    </row>
+    <row r="2" ht="17.1" spans="1:21">
       <c r="A2" s="9"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="J2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="35"/>
-    </row>
-    <row r="3" ht="16.35" spans="1:20">
-      <c r="A3" s="14" t="s">
+      <c r="K2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="L2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="38"/>
+    </row>
+    <row r="3" ht="14.55" spans="1:21">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="K3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1613,35 +1772,36 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="36"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:20">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="39"/>
+    </row>
+    <row r="4" ht="14.4" spans="1:21">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1649,35 +1809,36 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="37"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:20">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="40"/>
+    </row>
+    <row r="5" ht="14.4" spans="1:21">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1685,33 +1846,34 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="36"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:20">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="39"/>
+    </row>
+    <row r="6" ht="14.4" spans="1:21">
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -1719,35 +1881,36 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="37"/>
-    </row>
-    <row r="7" ht="15.6" spans="1:20">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="2"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="40"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:21">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1755,37 +1918,38 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="36"/>
-    </row>
-    <row r="8" ht="15.6" spans="1:20">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="T7" s="2"/>
+      <c r="U7" s="39"/>
+    </row>
+    <row r="8" ht="14.4" spans="1:21">
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="K8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1793,37 +1957,38 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="37"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:20">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="29" t="s">
+      <c r="T8" s="4"/>
+      <c r="U8" s="40"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:21">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="2"/>
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1831,37 +1996,38 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="36"/>
-    </row>
-    <row r="10" ht="15.6" spans="1:20">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="39"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:21">
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1869,35 +2035,36 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="37"/>
-    </row>
-    <row r="11" ht="15.6" spans="1:20">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="40"/>
+    </row>
+    <row r="11" ht="14.4" spans="1:21">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1905,35 +2072,36 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="36"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:20">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="4"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="39"/>
+    </row>
+    <row r="12" ht="14.4" spans="1:21">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1941,37 +2109,38 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="37"/>
-    </row>
-    <row r="13" ht="15.6" spans="1:20">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="T12" s="4"/>
+      <c r="U12" s="40"/>
+    </row>
+    <row r="13" ht="14.4" spans="1:21">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="2"/>
+      <c r="I13" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1979,37 +2148,38 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="36"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:20">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17" t="s">
+      <c r="T13" s="2"/>
+      <c r="U13" s="39"/>
+    </row>
+    <row r="14" ht="14.4" spans="1:21">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="J14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2017,39 +2187,40 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="37"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:20">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="2"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" ht="15.6" spans="1:21">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2057,33 +2228,34 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="36"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:20">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="T15" s="2"/>
+      <c r="U15" s="39"/>
+    </row>
+    <row r="16" ht="14.4" spans="1:21">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="I16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -2091,35 +2263,36 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="37"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:20">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15" t="s">
+      <c r="T16" s="4"/>
+      <c r="U16" s="40"/>
+    </row>
+    <row r="17" ht="14.4" spans="1:21">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="26" t="s">
+      <c r="J17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="K17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2127,37 +2300,38 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="36"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:20">
-      <c r="A18" s="14"/>
-      <c r="B18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="4"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="39"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:21">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>23</v>
+      </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -2165,37 +2339,38 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="37"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:20">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="2"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="40"/>
+    </row>
+    <row r="19" ht="15.6" spans="1:21">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2203,39 +2378,40 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="36"/>
-    </row>
-    <row r="20" ht="15.6" spans="1:20">
-      <c r="A20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="17" t="s">
+      <c r="T19" s="2"/>
+      <c r="U19" s="39"/>
+    </row>
+    <row r="20" ht="14.4" spans="1:21">
+      <c r="A20" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="28" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="K20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -2243,27 +2419,28 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="37"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:20">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15" t="s">
+      <c r="T20" s="4"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" ht="14.4" spans="1:21">
+      <c r="A21" s="22"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="2"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2271,31 +2448,32 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="36"/>
-    </row>
-    <row r="22" ht="15.6" spans="1:20">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="4"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="39"/>
+    </row>
+    <row r="22" ht="14.4" spans="1:21">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2303,31 +2481,32 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="37"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:20">
-      <c r="A23" s="19"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="2"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="40"/>
+    </row>
+    <row r="23" ht="14.4" spans="1:21">
+      <c r="A23" s="22"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="30"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2335,27 +2514,36 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="36"/>
-    </row>
-    <row r="24" ht="15.6" spans="1:20">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="4"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="39"/>
+    </row>
+    <row r="24" ht="14.4" spans="1:21">
+      <c r="A24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -2363,39 +2551,40 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="37"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:20">
-      <c r="A25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="29" t="s">
+      <c r="T24" s="4"/>
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" ht="14.4" spans="1:21">
+      <c r="A25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="I25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="J25" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="K25" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2403,37 +2592,38 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="36"/>
-    </row>
-    <row r="26" ht="15.6" spans="1:20">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="T25" s="2"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" ht="14.4" spans="1:21">
+      <c r="A26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="I26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="J26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="K26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -2441,37 +2631,38 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="37"/>
-    </row>
-    <row r="27" ht="15.6" spans="1:20">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="29" t="s">
+      <c r="T26" s="4"/>
+      <c r="U26" s="40"/>
+    </row>
+    <row r="27" ht="14.4" spans="1:21">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="I27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="2"/>
+      <c r="K27" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>24</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2479,37 +2670,38 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="36"/>
-    </row>
-    <row r="28" ht="15.6" spans="1:20">
-      <c r="A28" s="14"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="20" t="s">
+      <c r="T27" s="2"/>
+      <c r="U27" s="39"/>
+    </row>
+    <row r="28" ht="14.4" spans="1:21">
+      <c r="A28" s="17"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="I28" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="J28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="K28" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
@@ -2517,20 +2709,21 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="38"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A28"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:D1 G1:G28 I1 L1:T28 H19:H28 A2:C28 H2:H17 J2:K28">
+  <conditionalFormatting sqref="A1:D1 A2:C28 H1:H28 K2:L28 I2:I17 J1 I19:I28 M1:U28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -84,6 +84,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -94,6 +95,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -113,6 +115,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -123,6 +126,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -133,6 +137,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -196,21 +201,10 @@
     <t>mul.w</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>op_or</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>ZeroExtend(ui12, 32)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -219,6 +213,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
@@ -227,6 +222,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -234,6 +230,30 @@
     </r>
   </si>
   <si>
+    <t>mulh.w</t>
+  </si>
+  <si>
+    <t>mulh.wu</t>
+  </si>
+  <si>
+    <t>div.w</t>
+  </si>
+  <si>
+    <t>mod.w</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>op_or</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>ZeroExtend(ui12, 32)</t>
+  </si>
+  <si>
     <t>nor</t>
   </si>
   <si>
@@ -255,6 +275,23 @@
     <t>op_xor</t>
   </si>
   <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机指令内</t>
+    </r>
+  </si>
+  <si>
+    <t>srl.w</t>
+  </si>
+  <si>
     <t>srli.w</t>
   </si>
   <si>
@@ -267,12 +304,18 @@
     <t>op_srl</t>
   </si>
   <si>
+    <t>sll.w</t>
+  </si>
+  <si>
     <t>slli.w</t>
   </si>
   <si>
     <t>op_sll</t>
   </si>
   <si>
+    <t>sra.w</t>
+  </si>
+  <si>
     <t>srai.w</t>
   </si>
   <si>
@@ -303,10 +346,16 @@
     <t>op_slt</t>
   </si>
   <si>
+    <t>slti</t>
+  </si>
+  <si>
     <t>sltu</t>
   </si>
   <si>
     <t>op_sltu</t>
+  </si>
+  <si>
+    <t>sltui</t>
   </si>
   <si>
     <r>
@@ -344,6 +393,12 @@
     <t>bne</t>
   </si>
   <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bgeu</t>
+  </si>
+  <si>
     <t>bl</t>
   </si>
   <si>
@@ -351,6 +406,12 @@
   </si>
   <si>
     <t>imm:4</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bltu</t>
   </si>
   <si>
     <r>
@@ -368,6 +429,12 @@
   </si>
   <si>
     <t>ld.w</t>
+  </si>
+  <si>
+    <t>st.h</t>
+  </si>
+  <si>
+    <t>ld.h</t>
   </si>
   <si>
     <t>st.b</t>
@@ -386,7 +453,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,22 +476,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -579,11 +633,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -801,7 +850,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -855,26 +904,6 @@
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color theme="0"/>
@@ -1064,137 +1093,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,94 +1260,73 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,15 +1648,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="2" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="8.88888888888889" style="8"/>
+    <col min="2" max="2" width="11.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.6666666666667" style="8" customWidth="1"/>
     <col min="4" max="6" width="8.88888888888889" style="8"/>
     <col min="7" max="8" width="11.3333333333333" style="8" customWidth="1"/>
@@ -1656,7 +1665,7 @@
     <col min="10" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.95" spans="1:21">
+    <row r="1" ht="16.95" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1664,12 +1673,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="11"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1679,1038 +1688,1072 @@
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="37"/>
-    </row>
-    <row r="2" ht="17.1" spans="1:21">
+    </row>
+    <row r="2" ht="17.1" spans="1:12">
       <c r="A2" s="9"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="38"/>
-    </row>
-    <row r="3" ht="14.55" spans="1:21">
-      <c r="A3" s="17" t="s">
+    </row>
+    <row r="3" ht="14.55" spans="1:12">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="39"/>
-    </row>
-    <row r="4" ht="14.4" spans="1:21">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="D4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="31" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="40"/>
-    </row>
-    <row r="5" ht="14.4" spans="1:21">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="33" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="39"/>
-    </row>
-    <row r="6" ht="14.4" spans="1:21">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="D6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="40"/>
-    </row>
-    <row r="7" ht="14.4" spans="1:21">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18" t="s">
+    </row>
+    <row r="7" ht="15.6" spans="1:12">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="33" t="s">
+      <c r="C7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="39"/>
-    </row>
-    <row r="8" ht="14.4" spans="1:21">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:12">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:12">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="20" t="s">
+      <c r="I12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="32" t="s">
+      <c r="L12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="40"/>
-    </row>
-    <row r="9" ht="15.6" spans="1:21">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="19" t="s">
+    </row>
+    <row r="13" ht="15.6" spans="1:12">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="18" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="39"/>
-    </row>
-    <row r="10" ht="14.4" spans="1:21">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="21" t="s">
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="31" t="s">
+      <c r="I14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="J14" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="40"/>
-    </row>
-    <row r="11" ht="14.4" spans="1:21">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="19" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="18" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="30" t="s">
+      <c r="L15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="39"/>
-    </row>
-    <row r="12" ht="14.4" spans="1:21">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="21" t="s">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="20" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="40"/>
-    </row>
-    <row r="13" ht="14.4" spans="1:21">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="19" t="s">
+    </row>
+    <row r="17" ht="15.6" spans="1:12">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" ht="15.6" spans="1:12">
+      <c r="A18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="18" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="39"/>
-    </row>
-    <row r="14" ht="14.4" spans="1:21">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="21" t="s">
+    </row>
+    <row r="20" ht="15.6" spans="1:12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="31" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:12">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="C22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:12">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="40"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:21">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="19" t="s">
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="18" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:12">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L26" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:12">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:12">
+      <c r="A28" s="14"/>
+      <c r="B28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:12">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="39"/>
-    </row>
-    <row r="16" ht="14.4" spans="1:21">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21" t="s">
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="21"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="29"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="21"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" ht="15.6" spans="1:12">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="31"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:12">
+      <c r="A35" s="21"/>
+      <c r="B35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:12">
+      <c r="A37" s="21"/>
+      <c r="B37" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:12">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="22"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="32" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="40"/>
-    </row>
-    <row r="17" ht="14.4" spans="1:21">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+    </row>
+    <row r="41" ht="15.6" spans="1:12">
+      <c r="A41" s="22"/>
+      <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="22"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="22"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="33" t="s">
+      <c r="G44" s="23"/>
+      <c r="H44" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="30" t="s">
+      <c r="K44" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="39"/>
-    </row>
-    <row r="18" ht="15.6" spans="1:21">
-      <c r="A18" s="17"/>
-      <c r="B18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="40"/>
-    </row>
-    <row r="19" ht="15.6" spans="1:21">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="39"/>
-    </row>
-    <row r="20" ht="14.4" spans="1:21">
-      <c r="A20" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="40"/>
-    </row>
-    <row r="21" ht="14.4" spans="1:21">
-      <c r="A21" s="22"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="39"/>
-    </row>
-    <row r="22" ht="14.4" spans="1:21">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="40"/>
-    </row>
-    <row r="23" ht="14.4" spans="1:21">
-      <c r="A23" s="22"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="39"/>
-    </row>
-    <row r="24" ht="14.4" spans="1:21">
-      <c r="A24" s="22"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" ht="14.4" spans="1:21">
-      <c r="A25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="39"/>
-    </row>
-    <row r="26" ht="14.4" spans="1:21">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="40"/>
-    </row>
-    <row r="27" ht="14.4" spans="1:21">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="39"/>
-    </row>
-    <row r="28" ht="14.4" spans="1:21">
-      <c r="A28" s="17"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2719,11 +2762,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A39:A44"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:D1 A2:C28 H1:H28 K2:L28 I2:I17 J1 I19:I28 M1:U28">
+  <conditionalFormatting sqref="A1:D1 A2:B3 B4:B29 A30:B30 B31:B38 A39:B44 I2:I25 K2:L40 H42:I44 J1 C42:C44 H1:H27 C2:C40 K42:L44 H28:I40">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -118,6 +118,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>非</t>
     </r>
     <r>
@@ -149,7 +155,7 @@
     <t>mulh.wu</t>
   </si>
   <si>
-    <t>op_mul_h_u</t>
+    <t>op_mul_u_h</t>
   </si>
   <si>
     <t>div.w</t>
@@ -1987,8 +1993,8 @@
   <sheetPr/>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -48,10 +48,10 @@
     <t>备注</t>
   </si>
   <si>
+    <t>rj</t>
+  </si>
+  <si>
     <t>rk</t>
-  </si>
-  <si>
-    <t>rj</t>
   </si>
   <si>
     <t>rd</t>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -2078,10 +2078,10 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
@@ -2396,10 +2396,10 @@
       <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
         <v>18</v>
       </c>
@@ -2456,10 +2456,10 @@
       <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
         <v>18</v>
       </c>
@@ -2544,10 +2544,10 @@
       <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D19" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
         <v>18</v>
       </c>
@@ -2604,10 +2604,10 @@
       <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
         <v>18</v>
       </c>
@@ -2664,10 +2664,10 @@
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="18" t="s">
         <v>18</v>
       </c>
@@ -2726,10 +2726,10 @@
       <c r="C25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
         <v>18</v>
       </c>
@@ -2842,10 +2842,10 @@
       <c r="C29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="22"/>
       <c r="F29" s="22" t="s">
         <v>18</v>
       </c>
@@ -2904,10 +2904,10 @@
       <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D31" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="22"/>
       <c r="F31" s="22" t="s">
         <v>18</v>
       </c>
@@ -2936,10 +2936,10 @@
       <c r="C32" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="20" t="s">
         <v>18</v>
       </c>
@@ -2986,10 +2986,10 @@
       <c r="C34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
         <v>17</v>
       </c>
@@ -3010,10 +3010,10 @@
       <c r="C35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D35" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
         <v>17</v>
       </c>
@@ -3036,10 +3036,10 @@
       <c r="C36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="D36" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="24" t="s">
         <v>17</v>
       </c>
@@ -3062,10 +3062,10 @@
       <c r="C37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
         <v>17</v>
       </c>
@@ -3116,10 +3116,10 @@
       <c r="C39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="D39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
         <v>17</v>
       </c>
@@ -3142,10 +3142,10 @@
       <c r="C40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="D40" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="24"/>
       <c r="F40" s="24" t="s">
         <v>17</v>
       </c>
@@ -3168,10 +3168,10 @@
       <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="18"/>
       <c r="F41" s="18" t="s">
         <v>17</v>
       </c>
@@ -3198,10 +3198,10 @@
       <c r="C42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D42" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="20"/>
       <c r="F42" s="20" t="s">
         <v>18</v>
       </c>
@@ -3230,10 +3230,10 @@
       <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="27" t="s">
-        <v>17</v>
-      </c>
+      <c r="D43" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="27" t="s">
         <v>17</v>
       </c>
@@ -3260,10 +3260,10 @@
       <c r="C44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="D44" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="24"/>
       <c r="F44" s="24" t="s">
         <v>18</v>
       </c>
@@ -3290,10 +3290,10 @@
       <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="D45" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="18"/>
       <c r="F45" s="18" t="s">
         <v>17</v>
       </c>
@@ -3320,10 +3320,10 @@
       <c r="C46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28" t="s">
-        <v>17</v>
-      </c>
+      <c r="D46" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="28"/>
       <c r="F46" s="28" t="s">
         <v>18</v>
       </c>
@@ -3355,7 +3355,7 @@
     <mergeCell ref="A32:A40"/>
     <mergeCell ref="A41:A46"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:D1 A2:B3 B4:B31 I2:I27 C2 K2:L42 H1:H29 J1 H44:I46 A41:B46 B33:B40 A32:B32 K44:L46 H30:I42">
+  <conditionalFormatting sqref="A1:E1 A2:B3 B4:B31 A32:B32 C2 B33:B40 A41:B46 I2:I27 H44:I46 J1 H1:H29 K2:L42 K44:L46 H30:I42">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="138">
   <si>
     <t>指令类型</t>
   </si>
@@ -357,6 +357,38 @@
   </si>
   <si>
     <t>ld.b</t>
+  </si>
+  <si>
+    <r>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内</t>
+    </r>
+  </si>
+  <si>
+    <t>ld.bu</t>
+  </si>
+  <si>
+    <t>非C3内</t>
+  </si>
+  <si>
+    <t>ld.hu</t>
   </si>
   <si>
     <r>
@@ -1175,7 +1207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1293,26 @@
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1424,7 +1476,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1436,34 +1488,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1548,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,25 +1682,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,19 +1733,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1991,10 +2073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -2060,13 +2142,13 @@
       <c r="I2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="38" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2098,7 +2180,7 @@
       <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2120,13 +2202,13 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="40" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2148,13 +2230,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="42" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2182,7 +2264,7 @@
       <c r="K6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2206,13 +2288,13 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="43" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2236,13 +2318,13 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="45" t="s">
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="38" t="s">
+      <c r="L8" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2266,13 +2348,13 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="43" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2294,13 +2376,13 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="45" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2324,13 +2406,13 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="43" t="s">
         <v>39</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="44" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2352,13 +2434,13 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="45" t="s">
         <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="38" t="s">
+      <c r="L12" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2380,13 +2462,13 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="42" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2410,13 +2492,13 @@
       <c r="I14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="40" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2440,13 +2522,13 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="42" t="s">
         <v>47</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2470,13 +2552,13 @@
       <c r="I16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="40" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="33" t="s">
+      <c r="L16" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2498,13 +2580,13 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="42" t="s">
         <v>49</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="39" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2526,13 +2608,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="40" t="s">
         <v>52</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="L18" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2558,13 +2640,13 @@
       <c r="I19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="43" t="s">
         <v>52</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2588,13 +2670,13 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="45" t="s">
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2618,13 +2700,13 @@
       <c r="I21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="42" t="s">
         <v>56</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2648,13 +2730,13 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="45" t="s">
         <v>61</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2678,13 +2760,13 @@
       <c r="I23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="42" t="s">
         <v>61</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2708,13 +2790,13 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="45" t="s">
         <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="46" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2740,13 +2822,13 @@
       <c r="I25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="42" t="s">
         <v>64</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2768,11 +2850,11 @@
       <c r="I26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="40" t="s">
         <v>69</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2794,13 +2876,13 @@
       <c r="I27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="42" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2824,13 +2906,13 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="40" t="s">
         <v>73</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2856,13 +2938,13 @@
       <c r="I29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="43" t="s">
         <v>73</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2886,13 +2968,13 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="40" t="s">
         <v>76</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="L30" s="41" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2918,13 +3000,13 @@
       <c r="I31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="43" t="s">
         <v>76</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="36" t="s">
+      <c r="L31" s="44" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2950,13 +3032,13 @@
       <c r="I32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="40" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="41" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2978,7 +3060,7 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="26"/>
@@ -3002,7 +3084,7 @@
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="33"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="26"/>
@@ -3026,7 +3108,7 @@
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="39"/>
     </row>
     <row r="36" ht="15.6" spans="1:12">
       <c r="A36" s="26"/>
@@ -3050,9 +3132,9 @@
       <c r="I36" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="37"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="38"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" ht="15.6" spans="1:12">
       <c r="A37" s="26"/>
@@ -3076,9 +3158,9 @@
       <c r="I37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="43"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="36"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="26"/>
@@ -3098,13 +3180,13 @@
       <c r="I38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="32" t="s">
+      <c r="J38" s="40" t="s">
         <v>21</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L38" s="33" t="s">
+      <c r="L38" s="41" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3130,9 +3212,9 @@
       <c r="I39" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="43"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="36"/>
+      <c r="L39" s="44"/>
     </row>
     <row r="40" ht="15.6" spans="1:12">
       <c r="A40" s="26"/>
@@ -3156,15 +3238,15 @@
       <c r="I40" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J40" s="37"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="38"/>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
@@ -3182,19 +3264,19 @@
       <c r="I41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="42" t="s">
         <v>21</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="31" t="s">
+      <c r="L41" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="19"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="5" t="s">
         <v>96</v>
       </c>
@@ -3212,29 +3294,29 @@
       <c r="I42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="32" t="s">
+      <c r="J42" s="40" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="33" t="s">
+      <c r="L42" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:12">
-      <c r="A43" s="19"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="32" t="s">
         <v>17</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="32" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="6"/>
@@ -3250,13 +3332,13 @@
       <c r="K43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="36" t="s">
+      <c r="L43" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="19"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="7" t="s">
         <v>98</v>
       </c>
@@ -3274,19 +3356,19 @@
       <c r="I44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="45" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="46" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="19"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
@@ -3304,27 +3386,27 @@
       <c r="I45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="34" t="s">
+      <c r="J45" s="42" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="31" t="s">
+      <c r="L45" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="19"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28" t="s">
+      <c r="D46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="8"/>
@@ -3334,13 +3416,77 @@
       <c r="I46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="47" t="s">
         <v>21</v>
       </c>
       <c r="K46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="40" t="s">
+      <c r="L46" s="48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:12">
+      <c r="A47" s="29"/>
+      <c r="B47" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:12">
+      <c r="A48" s="29"/>
+      <c r="B48" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="50" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3353,9 +3499,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A31"/>
     <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A41:A48"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E1 A2:B3 B4:B31 A32:B32 C2 B33:B40 A41:B46 I2:I27 H44:I46 J1 H1:H29 K2:L42 K44:L46 H30:I42">
+  <conditionalFormatting sqref="C45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3367,8 +3513,128 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C42 C44:C46">
+  <conditionalFormatting sqref="C47">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1 A2:B3 B4:B31 A32:B32 C2 B33:B40 A41:B41 B42:B48 I2:I27 H44:I46 J1 H1:H29 K2:L42 K44:L46 H30:I42">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C42 C44">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3400,31 +3666,31 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3"/>
       <c r="H2" s="4" t="s">
@@ -3433,16 +3699,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E3" s="3"/>
       <c r="H3" s="5" t="s">
@@ -3451,16 +3717,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3"/>
       <c r="H4" s="4" t="s">
@@ -3469,16 +3735,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3"/>
       <c r="H5" s="5" t="s">
@@ -3487,16 +3753,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="E6" s="3"/>
       <c r="H6" s="6" t="s">
@@ -3505,14 +3771,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3"/>
       <c r="H7" s="7" t="s">
@@ -3521,16 +3787,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E8" s="3"/>
       <c r="H8" s="6" t="s">
@@ -3539,14 +3805,14 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3"/>
       <c r="H9" s="6" t="s">
@@ -3555,16 +3821,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3"/>
       <c r="H10" s="7" t="s">
@@ -3573,16 +3839,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3"/>
       <c r="H11" s="7" t="s">
@@ -3591,14 +3857,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E12" s="3"/>
       <c r="H12" s="4" t="s">
@@ -3607,14 +3873,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E13" s="3"/>
       <c r="H13" s="5" t="s">
@@ -3623,14 +3889,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3"/>
       <c r="H14" s="4" t="s">
@@ -3639,12 +3905,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3"/>
       <c r="H15" s="5" t="s">
@@ -3653,12 +3919,12 @@
     </row>
     <row r="16" ht="28.8" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E16" s="3"/>
       <c r="H16" s="4" t="s">
@@ -3667,16 +3933,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3"/>
       <c r="H17" s="5" t="s">
@@ -3685,16 +3951,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E18" s="3"/>
       <c r="H18" s="6" t="s">
@@ -3703,14 +3969,14 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E19" s="3"/>
       <c r="H19" s="7" t="s">
@@ -3719,7 +3985,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3731,14 +3997,14 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E21" s="3"/>
       <c r="H21" s="7" t="s">
@@ -3747,14 +4013,14 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E22" s="3"/>
       <c r="H22" s="4" t="s">
@@ -3763,13 +4029,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>63</v>
@@ -3777,14 +4043,14 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E24" s="3"/>
       <c r="H24" s="4" t="s">
@@ -3793,14 +4059,14 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E25" s="3"/>
       <c r="H25" s="5" t="s">
@@ -3809,14 +4075,14 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E26" s="3"/>
       <c r="H26" s="4" t="s">
@@ -3825,14 +4091,14 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E27" s="3"/>
       <c r="H27" s="5" t="s">

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="105">
   <si>
     <t>指令类型</t>
   </si>
@@ -41,6 +41,9 @@
     <t>立即数</t>
   </si>
   <si>
+    <t>BranchUnit</t>
+  </si>
+  <si>
     <t>ALU</t>
   </si>
   <si>
@@ -65,13 +68,13 @@
     <t>扩展方式</t>
   </si>
   <si>
+    <t>src1</t>
+  </si>
+  <si>
+    <t>src2</t>
+  </si>
+  <si>
     <t>op</t>
-  </si>
-  <si>
-    <t>src1</t>
-  </si>
-  <si>
-    <t>src2</t>
   </si>
   <si>
     <t>运算</t>
@@ -301,6 +304,9 @@
     <t>SignExtend({offs16, 2'b0}, 32)</t>
   </si>
   <si>
+    <t>imm:4</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -326,9 +332,6 @@
   </si>
   <si>
     <t>W→GR[1]</t>
-  </si>
-  <si>
-    <t>imm:4</t>
   </si>
   <si>
     <t>blt</t>
@@ -774,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -880,6 +883,17 @@
         <color theme="0"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1043,7 +1057,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,34 +1069,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,19 +1284,28 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,25 +1314,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1646,11 +1669,11 @@
     <col min="7" max="7" width="11.3333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.2222222222222" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7777777777778" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="1"/>
+    <col min="10" max="12" width="14.7777777777778" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.95" spans="1:12">
+    <row r="1" ht="16.95" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1668,1392 +1691,1521 @@
         <v>3</v>
       </c>
       <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" ht="17.1" spans="1:12">
+      <c r="K1" s="35"/>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" ht="17.1" spans="1:14">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="J2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="K2" s="36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="14.55" spans="1:12">
+      <c r="L2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="14.55" spans="1:14">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="12"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:12">
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:14">
       <c r="A7" s="12"/>
       <c r="B7" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:12">
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:14">
       <c r="A8" s="12"/>
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:12">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:14">
       <c r="A9" s="12"/>
       <c r="B9" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:12">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:14">
       <c r="A11" s="12"/>
       <c r="B11" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="12"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:14">
       <c r="A15" s="12"/>
       <c r="B15" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="12"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:12">
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:14">
       <c r="A19" s="12"/>
       <c r="B19" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:12">
+        <v>46</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:14">
       <c r="A20" s="12"/>
       <c r="B20" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="12"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:14">
       <c r="A22" s="12"/>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="12"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:14">
       <c r="A24" s="12"/>
       <c r="B24" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:12">
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:14">
       <c r="A25" s="12"/>
       <c r="B25" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>60</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="12"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:14">
       <c r="A28" s="12"/>
       <c r="B28" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:12">
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:14">
       <c r="A29" s="12"/>
       <c r="B29" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:14">
       <c r="A30" s="12"/>
       <c r="B30" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:12">
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:14">
       <c r="A31" s="12"/>
       <c r="B31" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="22"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="36"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="39"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="22"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="41"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="22"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="36"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="39"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:14">
       <c r="A36" s="22"/>
       <c r="B36" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="43"/>
-    </row>
-    <row r="37" ht="15.6" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J36" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="46"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:14">
       <c r="A37" s="22"/>
       <c r="B37" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="41"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J37" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="43"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="44"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="22"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L38" s="38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" ht="15.6" spans="1:12">
+    </row>
+    <row r="39" ht="15.6" spans="1:14">
       <c r="A39" s="22"/>
       <c r="B39" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="40"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="41"/>
-    </row>
-    <row r="40" ht="15.6" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="43"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="44"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:14">
       <c r="A40" s="22"/>
       <c r="B40" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="43"/>
-    </row>
-    <row r="41" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="J40" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="45"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="46"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" ht="15.6" spans="1:12">
+      <c r="M42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="15.6" spans="1:14">
       <c r="A43" s="25"/>
       <c r="B43" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="19" t="s">
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="25"/>
       <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="25"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="30"/>
       <c r="H46" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="30" t="s">
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" ht="15.6" spans="1:12">
+      <c r="M46" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="15.6" spans="1:14">
       <c r="A47" s="25"/>
       <c r="B47" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E47" s="17"/>
       <c r="F47" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" ht="15.6" spans="1:12">
+      <c r="M47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" ht="15.6" spans="1:14">
       <c r="A48" s="25"/>
       <c r="B48" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="32" t="s">
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="47" t="s">
-        <v>23</v>
+      <c r="M48" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="50" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A31"/>
     <mergeCell ref="A32:A40"/>
@@ -3095,7 +3247,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I47:K47">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -3107,7 +3259,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
+  <conditionalFormatting sqref="M47">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3119,7 +3271,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
+  <conditionalFormatting sqref="N47">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3143,7 +3295,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="I48:K48">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -3155,7 +3307,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48">
+  <conditionalFormatting sqref="M48">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3167,7 +3319,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
+  <conditionalFormatting sqref="N48">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3179,7 +3331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1 A2:B3 B4:B31 A32:B32 C2 B33:B40 A41:B41 B42:B48 I2:I27 H44:I46 J1 H1:H29 K2:L42 K44:L46 H30:I42">
+  <conditionalFormatting sqref="A1:E1 A2:B3 B4:B31 A32:B32 C2 B33:B40 A41:B41 B42:B48 I2:K27 H44:K46 H30:K42 H1:H29 L1 M44:N46 M2:N42">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>

--- a/docs/指令控制信号.xlsx
+++ b/docs/指令控制信号.xlsx
@@ -1181,7 +1181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,9 +1285,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1694,7 +1691,7 @@
       <c r="J1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
@@ -1727,19 +1724,19 @@
       <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
       <c r="M3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1795,15 +1792,15 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40" t="s">
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1825,15 +1822,15 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1863,7 +1860,7 @@
       <c r="M6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1887,15 +1884,15 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1919,15 +1916,15 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="46" t="s">
+      <c r="N8" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1951,15 +1948,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42" t="s">
         <v>36</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1981,15 +1978,15 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44" t="s">
         <v>38</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="46" t="s">
+      <c r="N10" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2013,15 +2010,15 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43" t="s">
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2043,15 +2040,15 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>42</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="46" t="s">
+      <c r="N12" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2073,15 +2070,15 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41" t="s">
         <v>44</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2105,15 +2102,15 @@
       <c r="I14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>44</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2137,15 +2134,15 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41" t="s">
         <v>48</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2169,15 +2166,15 @@
       <c r="I16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40" t="s">
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39" t="s">
         <v>50</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2199,15 +2196,15 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="38" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2229,15 +2226,15 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40" t="s">
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39" t="s">
         <v>53</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2263,15 +2260,15 @@
       <c r="I19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43" t="s">
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="s">
         <v>53</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="44" t="s">
+      <c r="N19" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2295,15 +2292,15 @@
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45" t="s">
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44" t="s">
         <v>57</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="46" t="s">
+      <c r="N20" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2327,15 +2324,15 @@
       <c r="I21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42" t="s">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41" t="s">
         <v>57</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2359,15 +2356,15 @@
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44" t="s">
         <v>62</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2391,15 +2388,15 @@
       <c r="I23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42" t="s">
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41" t="s">
         <v>62</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2423,15 +2420,15 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45" t="s">
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44" t="s">
         <v>65</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="46" t="s">
+      <c r="N24" s="45" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2457,15 +2454,15 @@
       <c r="I25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42" t="s">
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41" t="s">
         <v>65</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2487,13 +2484,13 @@
       <c r="I26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40" t="s">
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39" t="s">
         <v>70</v>
       </c>
       <c r="M26" s="13"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2515,15 +2512,15 @@
       <c r="I27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42" t="s">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2547,15 +2544,15 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40" t="s">
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39" t="s">
         <v>74</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2581,15 +2578,15 @@
       <c r="I29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42" t="s">
         <v>74</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="44" t="s">
+      <c r="N29" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2613,15 +2610,15 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40" t="s">
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39" t="s">
         <v>77</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="41" t="s">
+      <c r="N30" s="40" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2647,15 +2644,15 @@
       <c r="I31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43" t="s">
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42" t="s">
         <v>77</v>
       </c>
       <c r="M31" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="44" t="s">
+      <c r="N31" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2681,17 +2678,17 @@
       <c r="I32" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40" t="s">
+      <c r="K32" s="39"/>
+      <c r="L32" s="39" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2715,7 +2712,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="39"/>
+      <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="22"/>
@@ -2745,7 +2742,7 @@
       </c>
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
-      <c r="N34" s="41"/>
+      <c r="N34" s="40"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="22"/>
@@ -2775,7 +2772,7 @@
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="39"/>
+      <c r="N35" s="38"/>
     </row>
     <row r="36" ht="15.6" spans="1:14">
       <c r="A36" s="22"/>
@@ -2799,15 +2796,15 @@
       <c r="I36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="45"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="19"/>
-      <c r="N36" s="46"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" ht="15.6" spans="1:14">
       <c r="A37" s="22"/>
@@ -2831,15 +2828,15 @@
       <c r="I37" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J37" s="43" t="s">
+      <c r="J37" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L37" s="43"/>
+      <c r="L37" s="42"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="44"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="22"/>
@@ -2859,15 +2856,15 @@
       <c r="I38" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40" t="s">
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N38" s="41" t="s">
+      <c r="N38" s="40" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2893,15 +2890,15 @@
       <c r="I39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="43" t="s">
+      <c r="J39" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="43"/>
+      <c r="L39" s="42"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="44"/>
+      <c r="N39" s="43"/>
     </row>
     <row r="40" ht="15.6" spans="1:14">
       <c r="A40" s="22"/>
@@ -2925,15 +2922,15 @@
       <c r="I40" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K40" s="45" t="s">
+      <c r="K40" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="45"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="19"/>
-      <c r="N40" s="46"/>
+      <c r="N40" s="45"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="23" t="s">
@@ -2957,15 +2954,15 @@
       <c r="I41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42" t="s">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2989,15 +2986,15 @@
       <c r="I42" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40" t="s">
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="41" t="s">
+      <c r="N42" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3031,7 +3028,7 @@
       <c r="M43" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="44" t="s">
+      <c r="N43" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3055,15 +3052,15 @@
       <c r="I44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45" t="s">
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44" t="s">
         <v>22</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N44" s="46" t="s">
+      <c r="N44" s="45" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3087,15 +3084,15 @@
       <c r="I45" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42" t="s">
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41" t="s">
         <v>22</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="38" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3119,15 +3116,15 @@
       <c r="I46" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47" t="s">
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46" t="s">
         <v>22</v>
       </c>
       <c r="M46" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="N46" s="48" t="s">
+      <c r="N46" s="47" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3153,15 +3150,15 @@
       <c r="I47" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43" t="s">
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42" t="s">
         <v>22</v>
       </c>
       <c r="M47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="43" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3187,15 +3184,15 @@
       <c r="I48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49" t="s">
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N48" s="50" t="s">
+      <c r="N48" s="49" t="s">
         <v>24</v>
       </c>
     </row>
